--- a/TS.xlsx
+++ b/TS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -48,9 +48,6 @@
     <t>Сomment</t>
   </si>
   <si>
-    <t>US1</t>
-  </si>
-  <si>
     <t>1. Открыть ссылку https://frontend.nopcommerce.com/</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Страница открывается, все отображается корректно</t>
-  </si>
-  <si>
-    <t>US2</t>
   </si>
   <si>
     <t>Проверка поискового поля</t>
@@ -692,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -706,109 +700,109 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -821,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,33 +855,33 @@
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -895,19 +889,19 @@
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -916,32 +910,32 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>

--- a/TS.xlsx
+++ b/TS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -65,12 +65,6 @@
 3. Нажать клавишу "Search"</t>
   </si>
   <si>
-    <t>Переносит на страцицу с товаром "Nokia"</t>
-  </si>
-  <si>
-    <t>US3</t>
-  </si>
-  <si>
     <t>Раздел Computers</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Переход на страницу computers </t>
-  </si>
-  <si>
-    <t>US4</t>
   </si>
   <si>
     <t>Раздел Notebooks</t>
@@ -188,6 +179,45 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Переносит на страницу с товаром "Nokia"</t>
+  </si>
+  <si>
+    <t>1. отображается страница с товарами
+2. отображается страница с товарами
+3.  отображается страница с товарами
+4. отображается страница с товарами
+5. отображается страница с товарами
+6.  отображается страница с товарами
+7.  отображается страница с товарами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Перейти в раздел "computers"
+2. Перейти в раздел "Electronics"
+3. Перейти в раздел "Apparel
+4. Перейти в раздел Digital downloads
+5. Перейти в раздел Dooks
+6. Перейти в раздел Jewelry
+7. Перейти в раздел Gift Cards
+</t>
+  </si>
+  <si>
+    <t>Раздел Desktops</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел computers
+3. В выпадающем списке выбрать категорию Desktops</t>
+  </si>
+  <si>
+    <t>Страница Desktops открывается корректно, отображается список товаров</t>
+  </si>
+  <si>
+    <t>Страница Desktops открывается корректно</t>
+  </si>
+  <si>
+    <t>Переход по категориям</t>
   </si>
 </sst>
 </file>
@@ -365,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -403,6 +433,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,109 +742,109 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +855,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,9 +867,9 @@
     <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,110 +896,128 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1489,14 +1550,32 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS.xlsx
+++ b/TS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -65,9 +65,6 @@
 3. Нажать клавишу "Search"</t>
   </si>
   <si>
-    <t>Раздел Computers</t>
-  </si>
-  <si>
     <t>1. Навести курсор на раздел "computers"</t>
   </si>
   <si>
@@ -184,25 +181,6 @@
     <t>Переносит на страницу с товаром "Nokia"</t>
   </si>
   <si>
-    <t>1. отображается страница с товарами
-2. отображается страница с товарами
-3.  отображается страница с товарами
-4. отображается страница с товарами
-5. отображается страница с товарами
-6.  отображается страница с товарами
-7.  отображается страница с товарами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Перейти в раздел "computers"
-2. Перейти в раздел "Electronics"
-3. Перейти в раздел "Apparel
-4. Перейти в раздел Digital downloads
-5. Перейти в раздел Dooks
-6. Перейти в раздел Jewelry
-7. Перейти в раздел Gift Cards
-</t>
-  </si>
-  <si>
     <t>Раздел Desktops</t>
   </si>
   <si>
@@ -218,6 +196,104 @@
   </si>
   <si>
     <t>Переход по категориям</t>
+  </si>
+  <si>
+    <t>Раздел Software</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел computers
+3. В выпадающем списке выбрать категорию Software</t>
+  </si>
+  <si>
+    <t>Страница Software открывается корректно, отображается список товаров</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Категория Electronics</t>
+  </si>
+  <si>
+    <t>2. Перейти в раздел "Electronics"</t>
+  </si>
+  <si>
+    <t>2. отображается страница с товарами</t>
+  </si>
+  <si>
+    <t>3. Перейти в раздел "Apparel</t>
+  </si>
+  <si>
+    <t>4. Перейти в раздел Digital downloads</t>
+  </si>
+  <si>
+    <t>5. Перейти в раздел Dooks</t>
+  </si>
+  <si>
+    <t>6. Перейти в раздел Jewelry</t>
+  </si>
+  <si>
+    <t>7. Перейти в раздел Gift Cards</t>
+  </si>
+  <si>
+    <t>7.  отображается страница с товарами</t>
+  </si>
+  <si>
+    <t>6.  отображается страница с товарами</t>
+  </si>
+  <si>
+    <t>5. отображается страница с товарами</t>
+  </si>
+  <si>
+    <t>4. отображается страница с товарами</t>
+  </si>
+  <si>
+    <t>3.  отображается страница с товарами</t>
+  </si>
+  <si>
+    <t>1. отображается страница с товарами</t>
+  </si>
+  <si>
+    <t>1. Перейти в раздел "computers"</t>
+  </si>
+  <si>
+    <t>Категория Computers</t>
+  </si>
+  <si>
+    <t>1. Навести курсор на раздел "elektronics"</t>
+  </si>
+  <si>
+    <t>1. Появился выпадающий список</t>
+  </si>
+  <si>
+    <t>US031</t>
+  </si>
+  <si>
+    <t>US032</t>
+  </si>
+  <si>
+    <t>US033</t>
+  </si>
+  <si>
+    <t>US034</t>
+  </si>
+  <si>
+    <t>US035</t>
+  </si>
+  <si>
+    <t>US036</t>
+  </si>
+  <si>
+    <t>US037</t>
+  </si>
+  <si>
+    <t>1. Появляется выпадающий список с разделами camera photo/ cell phones/Others</t>
+  </si>
+  <si>
+    <t>2. Нажать на раздел elektronics</t>
+  </si>
+  <si>
+    <t>2. Происходит переход на страницу elektronics</t>
   </si>
 </sst>
 </file>
@@ -395,17 +471,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -445,6 +512,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,121 +809,121 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="11" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -855,727 +934,839 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="6"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="6"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS.xlsx
+++ b/TS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -209,9 +209,6 @@
     <t>Страница Software открывается корректно, отображается список товаров</t>
   </si>
   <si>
-    <t>US05</t>
-  </si>
-  <si>
     <t>Категория Electronics</t>
   </si>
   <si>
@@ -294,6 +291,113 @@
   </si>
   <si>
     <t>2. Происходит переход на страницу elektronics</t>
+  </si>
+  <si>
+    <t>US040</t>
+  </si>
+  <si>
+    <t>US051</t>
+  </si>
+  <si>
+    <t>US050</t>
+  </si>
+  <si>
+    <t>Раздел Camera photo</t>
+  </si>
+  <si>
+    <t>US052</t>
+  </si>
+  <si>
+    <t>Раздел cell phones</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел elektronics
+3. В выпадающем списке выбрать категорию camera photo</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел elektronics
+3. В выпадающем списке выбрать категорию cell phones</t>
+  </si>
+  <si>
+    <t>Страница открывается корректно, отображается страница с перечнем товаров категории camera photo</t>
+  </si>
+  <si>
+    <t>Страница открывается корректно, отображается страница с перечнем товаров категории cell phones</t>
+  </si>
+  <si>
+    <t>US053</t>
+  </si>
+  <si>
+    <t>Раздел Others</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел elektronics
+3. В выпадающем списке выбрать категорию others</t>
+  </si>
+  <si>
+    <t>Страница открывается корректно, отображается страница с перечнем товаров категории others</t>
+  </si>
+  <si>
+    <t>US060</t>
+  </si>
+  <si>
+    <t>Категория Apparel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть начальную страницу
+2. Нажать на категорию apparel
+</t>
+  </si>
+  <si>
+    <t>Страница открывается корректно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Происходит переход на страницу Apparel </t>
+  </si>
+  <si>
+    <t>US061</t>
+  </si>
+  <si>
+    <t>Раздел Shoes</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел Apparel
+3. В выпадающем списке выбрать категорию Shoes</t>
+  </si>
+  <si>
+    <t>Страница открывается корректно, отображается страница с перечнем товаров категории Shoes</t>
+  </si>
+  <si>
+    <t>US062</t>
+  </si>
+  <si>
+    <t>Раздел Clothing</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел Apparel
+3. В выпадающем списке выбрать категорию Clothing</t>
+  </si>
+  <si>
+    <t>Страница открывается корректно, отображается страница с перечнем товаров категории Clothing</t>
+  </si>
+  <si>
+    <t>US063</t>
+  </si>
+  <si>
+    <t>Раздел Accessries</t>
+  </si>
+  <si>
+    <t>1. Открыть начальную страницу
+2. Навести курсор на раздел Apparel
+3. В выпадающем списке выбрать категорию Accessries</t>
+  </si>
+  <si>
+    <t>Страница открывается корректно, отображается страница с перечнем товаров категории Accessries</t>
   </si>
 </sst>
 </file>
@@ -937,8 +1041,8 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,16 +1115,16 @@
     </row>
     <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1028,14 +1132,14 @@
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1043,14 +1147,14 @@
     </row>
     <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1058,14 +1162,14 @@
     </row>
     <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -1073,14 +1177,14 @@
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1088,14 +1192,14 @@
     </row>
     <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1103,14 +1207,14 @@
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1118,10 +1222,10 @@
     </row>
     <row r="11" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -1201,25 +1305,27 @@
       <c r="D15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -1228,75 +1334,145 @@
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>

--- a/TS.xlsx
+++ b/TS.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Чек-лист" sheetId="2" r:id="rId1"/>
+    <sheet name="checklist" sheetId="2" r:id="rId1"/>
     <sheet name="Test-case" sheetId="1" r:id="rId2"/>
+    <sheet name="test-case для моб версии" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -398,6 +399,38 @@
   </si>
   <si>
     <t>Страница открывается корректно, отображается страница с перечнем товаров категории Accessries</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>1. Перейти в раздел Register</t>
+  </si>
+  <si>
+    <t>Переход на страницу с формой для регистрации</t>
+  </si>
+  <si>
+    <t>Открывается страница корректно</t>
+  </si>
+  <si>
+    <t>US070</t>
+  </si>
+  <si>
+    <t>US071</t>
+  </si>
+  <si>
+    <t>Регистрация с коректными данными</t>
+  </si>
+  <si>
+    <t>1. в поле "First name" ввести имя "Juli" 
+2. в поле "Last name" ввести фамилию "Mitrofanova"
+3. выбрать из выпадающего списка "day" -5, "Month" - September", "Year" - 1989
+4. Email: 050989mya@gmail.com
+5. "Password" - 1234567
+6. "Confirm password" - 1234567</t>
+  </si>
+  <si>
+    <t>регистрация прошла успешно</t>
   </si>
 </sst>
 </file>
@@ -913,7 +946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,8 +1074,8 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,21 +1509,41 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
@@ -1947,4 +2000,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TS.xlsx
+++ b/TS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -422,22 +422,63 @@
     <t>Регистрация с коректными данными</t>
   </si>
   <si>
-    <t>1. в поле "First name" ввести имя "Juli" 
-2. в поле "Last name" ввести фамилию "Mitrofanova"
-3. выбрать из выпадающего списка "day" -5, "Month" - September", "Year" - 1989
-4. Email: 050989mya@gmail.com
-5. "Password" - 1234567
-6. "Confirm password" - 1234567</t>
-  </si>
-  <si>
     <t>регистрация прошла успешно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Установить радиобатон на Female
+ 2.в поле "First name" ввести имя "Juli" 
+3. в поле "Last name" ввести фамилию "Mitrofanova"
+4. выбрать из выпадающего списка "day" -5, "Month" - September", "Year" - 1989
+5. Email: 050989mya@gmail.com
+6. "Password" - 1234567
+7. "Confirm password" - 1234567
+</t>
+  </si>
+  <si>
+    <t>US072</t>
+  </si>
+  <si>
+    <t>Регистрация с неполными данными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Радиобатон оставить пустым
+ 2.в поле "First name" ввести имя "Juli" 
+3. в поле "Last name" ввести фамилию "Mitrofanova"
+4. выбрать из выпадающего списка "day" -5, "Month" - September", "Year" - 1989
+5. Email: 050989mya@gmail.com
+6. "Password" - 1234567
+7. "Confirm password" - 1234567
+</t>
+  </si>
+  <si>
+    <t>сообщение об установлении</t>
+  </si>
+  <si>
+    <t>US073</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>С пустыми значениями</t>
+  </si>
+  <si>
+    <t>Все поля оставить незаполненными</t>
+  </si>
+  <si>
+    <t>Обязательные поля помечены текстом: First name is required.
+Last name is required.
+Email is required.</t>
+  </si>
+  <si>
+    <t>Заполните поля</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +486,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -608,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -661,6 +708,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,8 +1124,8 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1176,9 @@
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1143,7 +1195,9 @@
         <v>49</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1214,9 @@
         <v>71</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1175,7 +1231,9 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1248,9 @@
         <v>70</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1265,9 @@
         <v>69</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1282,9 @@
         <v>68</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1235,7 +1299,9 @@
         <v>67</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1316,9 @@
         <v>66</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1269,7 +1337,9 @@
       <c r="E11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1284,7 +1354,9 @@
       <c r="E12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1303,7 +1375,9 @@
       <c r="E13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1322,7 +1396,9 @@
       <c r="E14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1341,7 +1417,9 @@
       <c r="E15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1360,7 +1438,9 @@
       <c r="E16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1373,7 +1453,9 @@
         <v>85</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1392,7 +1474,9 @@
       <c r="E18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1411,7 +1495,9 @@
       <c r="E19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1430,7 +1516,9 @@
       <c r="E20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1449,7 +1537,9 @@
       <c r="E21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1468,7 +1558,9 @@
       <c r="E22" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1487,27 +1579,31 @@
       <c r="E23" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="12" t="s">
         <v>116</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -1525,45 +1621,71 @@
       <c r="E25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1999,6 +2121,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TS.xlsx
+++ b/TS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="145">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -472,6 +472,42 @@
   </si>
   <si>
     <t>Заполните поля</t>
+  </si>
+  <si>
+    <t>1. Нажать на пустое поисковое поле
+2. Набрать текст "Nokia"
+3. Нажать клавишу "Search"</t>
+  </si>
+  <si>
+    <t>Список отображается, переход на страницу произошел</t>
+  </si>
+  <si>
+    <t>1. Нажать на вкладку Categories
+2. при выпадении списка выбрать раздел "computers"</t>
+  </si>
+  <si>
+    <t>1. Нажать на вкладку Categories
+2. при выпадении списка выбрать раздел "Electronics"</t>
+  </si>
+  <si>
+    <t>1. Нажать на вкладку Categories
+2. при выпадении списка выбрать раздел "Apparel</t>
+  </si>
+  <si>
+    <t>1. Нажать на вкладку Categories
+2. при выпадении списка выбрать раздел Digital downloads</t>
+  </si>
+  <si>
+    <t>1. Нажать на вкладку Categories
+2. при выпадении списка выбрать раздел Dooks</t>
+  </si>
+  <si>
+    <t>1. Нажать на вкладку Categories
+2. при выпадении списка выбрать раздел Jewelry</t>
+  </si>
+  <si>
+    <t>1. Нажать на вкладку Categories
+2. при выпадении списка выбрать раздел Gift Cards</t>
   </si>
 </sst>
 </file>
@@ -655,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -710,6 +746,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1123,9 +1165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,46 +2169,2138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TS.xlsx
+++ b/TS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -508,6 +508,15 @@
   <si>
     <t>1. Нажать на вкладку Categories
 2. при выпадении списка выбрать раздел Gift Cards</t>
+  </si>
+  <si>
+    <t>US007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. </t>
+  </si>
+  <si>
+    <t>Раздел Корзина</t>
   </si>
 </sst>
 </file>
@@ -2172,8 +2181,8 @@
   <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,9 +2617,15 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>

--- a/TS.xlsx
+++ b/TS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="145">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -508,15 +508,6 @@
   <si>
     <t>1. Нажать на вкладку Categories
 2. при выпадении списка выбрать раздел Gift Cards</t>
-  </si>
-  <si>
-    <t>US007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. </t>
-  </si>
-  <si>
-    <t>Раздел Корзина</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2173,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,15 +2608,9 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>146</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
